--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H2">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I2">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J2">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>2.915751824921611</v>
+        <v>28.590514452402</v>
       </c>
       <c r="R2">
-        <v>2.915751824921611</v>
+        <v>257.314630071618</v>
       </c>
       <c r="S2">
-        <v>0.003112853222542908</v>
+        <v>0.01432998470410899</v>
       </c>
       <c r="T2">
-        <v>0.003112853222542908</v>
+        <v>0.01568503190246838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H3">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I3">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J3">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>4.430986169784444</v>
+        <v>18.48551944886267</v>
       </c>
       <c r="R3">
-        <v>4.430986169784444</v>
+        <v>166.369675039764</v>
       </c>
       <c r="S3">
-        <v>0.004730515628855822</v>
+        <v>0.009265213166790579</v>
       </c>
       <c r="T3">
-        <v>0.004730515628855822</v>
+        <v>0.01014133420970154</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H4">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I4">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J4">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>0.2527293934803888</v>
+        <v>1.087428057282778</v>
       </c>
       <c r="R4">
-        <v>0.2527293934803888</v>
+        <v>9.786852515544998</v>
       </c>
       <c r="S4">
-        <v>0.0002698136035455944</v>
+        <v>0.0005450348734935753</v>
       </c>
       <c r="T4">
-        <v>0.0002698136035455944</v>
+        <v>0.0005965735173641345</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H5">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I5">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J5">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>0.4629672139943931</v>
+        <v>2.137435581552444</v>
       </c>
       <c r="R5">
-        <v>0.4629672139943931</v>
+        <v>19.236920233972</v>
       </c>
       <c r="S5">
-        <v>0.0004942632537160131</v>
+        <v>0.0010713140276177</v>
       </c>
       <c r="T5">
-        <v>0.0004942632537160131</v>
+        <v>0.001172617769503078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.50641692653158</v>
+        <v>5.996239666666667</v>
       </c>
       <c r="H6">
-        <v>1.50641692653158</v>
+        <v>17.988719</v>
       </c>
       <c r="I6">
-        <v>0.009795224936274315</v>
+        <v>0.02748578043016502</v>
       </c>
       <c r="J6">
-        <v>0.009795224936274315</v>
+        <v>0.02925508126773497</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>1.112570751951572</v>
+        <v>4.537444499361667</v>
       </c>
       <c r="R6">
-        <v>1.112570751951572</v>
+        <v>27.22466699617</v>
       </c>
       <c r="S6">
-        <v>0.001187779227613978</v>
+        <v>0.002274233658154181</v>
       </c>
       <c r="T6">
-        <v>0.001187779227613978</v>
+        <v>0.001659523868697838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H7">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I7">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J7">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>267.8269585404919</v>
+        <v>822.1723901611499</v>
       </c>
       <c r="R7">
-        <v>267.8269585404919</v>
+        <v>7399.551511450349</v>
       </c>
       <c r="S7">
-        <v>0.2859317462654937</v>
+        <v>0.4120848470482902</v>
       </c>
       <c r="T7">
-        <v>0.2859317462654937</v>
+        <v>0.4510517007476544</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H8">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I8">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J8">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>407.0091079237365</v>
+        <v>531.5848280360334</v>
       </c>
       <c r="R8">
-        <v>407.0091079237365</v>
+        <v>4784.2634523243</v>
       </c>
       <c r="S8">
-        <v>0.4345224454206692</v>
+        <v>0.2664381037065524</v>
       </c>
       <c r="T8">
-        <v>0.4345224454206692</v>
+        <v>0.2916325622784605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H9">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I9">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J9">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>23.21450824829906</v>
+        <v>31.27097717926389</v>
       </c>
       <c r="R9">
-        <v>23.21450824829906</v>
+        <v>281.438794613375</v>
       </c>
       <c r="S9">
-        <v>0.02478378173094667</v>
+        <v>0.01567347189248444</v>
       </c>
       <c r="T9">
-        <v>0.02478378173094667</v>
+        <v>0.01715555959983459</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H10">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I10">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J10">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>42.52594468715353</v>
+        <v>61.46585867932222</v>
       </c>
       <c r="R10">
-        <v>42.52594468715353</v>
+        <v>553.1927281139</v>
       </c>
       <c r="S10">
-        <v>0.04540064858388495</v>
+        <v>0.03080758886539072</v>
       </c>
       <c r="T10">
-        <v>0.04540064858388495</v>
+        <v>0.03372076273418664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>138.372223684612</v>
+        <v>172.4328083333333</v>
       </c>
       <c r="H11">
-        <v>138.372223684612</v>
+        <v>517.298425</v>
       </c>
       <c r="I11">
-        <v>0.8997423170515768</v>
+        <v>0.7904037483947683</v>
       </c>
       <c r="J11">
-        <v>0.8997423170515768</v>
+        <v>0.8412832210590593</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>102.1954056958564</v>
+        <v>130.4824925579583</v>
       </c>
       <c r="R11">
-        <v>102.1954056958564</v>
+        <v>782.8949553477499</v>
       </c>
       <c r="S11">
-        <v>0.1091036950505823</v>
+        <v>0.06539973688205068</v>
       </c>
       <c r="T11">
-        <v>0.1091036950505823</v>
+        <v>0.0477226356989232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H12">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I12">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J12">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>26.92802653862718</v>
+        <v>0.413962595322</v>
       </c>
       <c r="R12">
-        <v>26.92802653862718</v>
+        <v>3.725663357898</v>
       </c>
       <c r="S12">
-        <v>0.02874832949465448</v>
+        <v>0.0002074841174653695</v>
       </c>
       <c r="T12">
-        <v>0.02874832949465448</v>
+        <v>0.0002271038712809407</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H13">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I13">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J13">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>40.92176575262997</v>
+        <v>0.2676521830226667</v>
       </c>
       <c r="R13">
-        <v>40.92176575262997</v>
+        <v>2.408869647204</v>
       </c>
       <c r="S13">
-        <v>0.04368802903815206</v>
+        <v>0.0001341511953246425</v>
       </c>
       <c r="T13">
-        <v>0.04368802903815206</v>
+        <v>0.0001468365683473433</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H14">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I14">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J14">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>2.334047691083594</v>
+        <v>0.01574489124944444</v>
       </c>
       <c r="R14">
-        <v>2.334047691083594</v>
+        <v>0.141704021245</v>
       </c>
       <c r="S14">
-        <v>0.002491826572706932</v>
+        <v>7.891570162125671E-06</v>
       </c>
       <c r="T14">
-        <v>0.002491826572706932</v>
+        <v>8.637799153966722E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>13.9123071549377</v>
+        <v>0.08681966666666667</v>
       </c>
       <c r="H15">
-        <v>13.9123071549377</v>
+        <v>0.260459</v>
       </c>
       <c r="I15">
-        <v>0.09046245801214881</v>
+        <v>0.0003979671306811982</v>
       </c>
       <c r="J15">
-        <v>0.09046245801214881</v>
+        <v>0.0004235848707133055</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>4.275670281125683</v>
+        <v>0.03094796989911111</v>
       </c>
       <c r="R15">
-        <v>4.275670281125683</v>
+        <v>0.278531729092</v>
       </c>
       <c r="S15">
-        <v>0.004564700568605781</v>
+        <v>1.551157591150756E-05</v>
       </c>
       <c r="T15">
-        <v>0.004564700568605781</v>
+        <v>1.697835469145981E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.08681966666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.260459</v>
+      </c>
+      <c r="I16">
+        <v>0.0003979671306811982</v>
+      </c>
+      <c r="J16">
+        <v>0.0004235848707133055</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.756715</v>
+      </c>
+      <c r="N16">
+        <v>1.51343</v>
+      </c>
+      <c r="O16">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P16">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q16">
+        <v>0.06569774406166667</v>
+      </c>
+      <c r="R16">
+        <v>0.39418646437</v>
+      </c>
+      <c r="S16">
+        <v>3.292867181755298E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.4028277239595E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.181466</v>
+      </c>
+      <c r="I17">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J17">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N17">
+        <v>14.304222</v>
+      </c>
+      <c r="O17">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P17">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q17">
+        <v>0.2884144388279999</v>
+      </c>
+      <c r="R17">
+        <v>2.595729949452</v>
+      </c>
+      <c r="S17">
+        <v>0.0001445575421082425</v>
+      </c>
+      <c r="T17">
+        <v>0.0001582269420748263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.181466</v>
+      </c>
+      <c r="I18">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J18">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.082852</v>
+      </c>
+      <c r="N18">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P18">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q18">
+        <v>0.1864776070106667</v>
+      </c>
+      <c r="R18">
+        <v>1.678298463096</v>
+      </c>
+      <c r="S18">
+        <v>9.346530859283638E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.000102303413250143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.181466</v>
+      </c>
+      <c r="I19">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J19">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.544055</v>
+      </c>
+      <c r="O19">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P19">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q19">
+        <v>0.01096972051444444</v>
+      </c>
+      <c r="R19">
+        <v>0.09872748462999999</v>
+      </c>
+      <c r="S19">
+        <v>5.498184631900978E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.018094445857985E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H20">
+        <v>0.181466</v>
+      </c>
+      <c r="I20">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J20">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N20">
+        <v>1.069388</v>
+      </c>
+      <c r="O20">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P20">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q20">
+        <v>0.02156195142311111</v>
+      </c>
+      <c r="R20">
+        <v>0.194057562808</v>
+      </c>
+      <c r="S20">
+        <v>1.08071659430376E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.182909445417684E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06048866666666666</v>
+      </c>
+      <c r="H21">
+        <v>0.181466</v>
+      </c>
+      <c r="I21">
+        <v>0.0002772701397770639</v>
+      </c>
+      <c r="J21">
+        <v>0.0002951184337990267</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.756715</v>
+      </c>
+      <c r="N21">
+        <v>1.51343</v>
+      </c>
+      <c r="O21">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P21">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q21">
+        <v>0.04577268139666667</v>
+      </c>
+      <c r="R21">
+        <v>0.27463608838</v>
+      </c>
+      <c r="S21">
+        <v>2.294193850104649E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.674088957402258E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>39.5815265</v>
+      </c>
+      <c r="H22">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I22">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J22">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N22">
+        <v>14.304222</v>
+      </c>
+      <c r="O22">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P22">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q22">
+        <v>188.727647384961</v>
+      </c>
+      <c r="R22">
+        <v>1132.365884309766</v>
+      </c>
+      <c r="S22">
+        <v>0.09459306179227404</v>
+      </c>
+      <c r="T22">
+        <v>0.06902520472979733</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>39.5815265</v>
+      </c>
+      <c r="H23">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I23">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J23">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P23">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q23">
+        <v>122.023988133578</v>
+      </c>
+      <c r="R23">
+        <v>732.143928801468</v>
+      </c>
+      <c r="S23">
+        <v>0.06116021054464248</v>
+      </c>
+      <c r="T23">
+        <v>0.04462902430869679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="H16">
-        <v>13.9123071549377</v>
-      </c>
-      <c r="I16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="J16">
-        <v>0.09046245801214881</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="N16">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="O16">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="P16">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="Q16">
-        <v>10.27499476415753</v>
-      </c>
-      <c r="R16">
-        <v>10.27499476415753</v>
-      </c>
-      <c r="S16">
-        <v>0.01096957233802955</v>
-      </c>
-      <c r="T16">
-        <v>0.01096957233802955</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>39.5815265</v>
+      </c>
+      <c r="H24">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I24">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J24">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.544055</v>
+      </c>
+      <c r="O24">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P24">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q24">
+        <v>7.178175799985833</v>
+      </c>
+      <c r="R24">
+        <v>43.06905479991499</v>
+      </c>
+      <c r="S24">
+        <v>0.003597806873620645</v>
+      </c>
+      <c r="T24">
+        <v>0.002625344304588525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>39.5815265</v>
+      </c>
+      <c r="H25">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I25">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J25">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.069388</v>
+      </c>
+      <c r="O25">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P25">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q25">
+        <v>14.10933648692733</v>
+      </c>
+      <c r="R25">
+        <v>84.65601892156398</v>
+      </c>
+      <c r="S25">
+        <v>0.007071806153729742</v>
+      </c>
+      <c r="T25">
+        <v>0.005160345360662643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>39.5815265</v>
+      </c>
+      <c r="H26">
+        <v>79.16305299999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1814352339046085</v>
+      </c>
+      <c r="J26">
+        <v>0.1287429943686935</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.756715</v>
+      </c>
+      <c r="N26">
+        <v>1.51343</v>
+      </c>
+      <c r="O26">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P26">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q26">
+        <v>29.9519348254475</v>
+      </c>
+      <c r="R26">
+        <v>119.80773930179</v>
+      </c>
+      <c r="S26">
+        <v>0.01501234854034158</v>
+      </c>
+      <c r="T26">
+        <v>0.007303075664948235</v>
       </c>
     </row>
   </sheetData>
